--- a/Hebrew.xlsx
+++ b/Hebrew.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="字母" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="331">
   <si>
     <t>Aleph</t>
   </si>
@@ -1423,11 +1423,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Final /
-Sofit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Dalet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1461,10 +1456,6 @@
   </si>
   <si>
     <t>字尾字母</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Begadkephat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2108,6 +2099,109 @@
   </si>
   <si>
     <t>Sin/Shin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2115,7 +2209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2230,13 +2324,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <name val="新細明體"/>
@@ -2303,6 +2390,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2352,7 +2456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2390,16 +2494,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2411,8 +2512,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2438,28 +2539,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2491,7 +2598,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2532,8 +2639,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2582,7 +2689,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2624,7 +2731,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2665,8 +2772,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2708,7 +2815,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2750,7 +2857,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2792,7 +2899,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2834,7 +2941,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2876,7 +2983,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2918,7 +3025,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2960,7 +3067,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3001,8 +3108,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3043,8 +3150,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3086,7 +3193,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3128,7 +3235,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3170,7 +3277,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3212,7 +3319,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3254,7 +3361,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3296,7 +3403,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3338,7 +3445,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5437,12 +5544,12 @@
   </sheetPr>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="4" width="9" style="4"/>
@@ -5486,7 +5593,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="32.25">
+    <row r="2" spans="1:13" ht="25.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -5514,7 +5621,7 @@
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="32.25">
+    <row r="3" spans="1:13" ht="25.5" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>131</v>
       </c>
@@ -5544,7 +5651,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="32.25">
+    <row r="4" spans="1:13" ht="25.5" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>147</v>
       </c>
@@ -5575,7 +5682,7 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" ht="32.25">
+    <row r="5" spans="1:13" ht="25.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>167</v>
       </c>
@@ -5605,7 +5712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="32.25">
+    <row r="6" spans="1:13" ht="25.5" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>133</v>
       </c>
@@ -5636,7 +5743,7 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" ht="32.25">
+    <row r="7" spans="1:13" ht="25.5" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>169</v>
       </c>
@@ -5666,7 +5773,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="32.25">
+    <row r="8" spans="1:13" ht="25.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>134</v>
       </c>
@@ -5697,7 +5804,7 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="32.25">
+    <row r="9" spans="1:13" ht="25.5" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>135</v>
       </c>
@@ -5727,7 +5834,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="32.25">
+    <row r="10" spans="1:13" ht="25.5" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>136</v>
       </c>
@@ -5758,7 +5865,7 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" ht="32.25">
+    <row r="11" spans="1:13" ht="25.5" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>137</v>
       </c>
@@ -5788,7 +5895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="32.25">
+    <row r="12" spans="1:13" ht="25.5" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>138</v>
       </c>
@@ -5821,7 +5928,7 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="32.25">
+    <row r="13" spans="1:13" ht="25.5" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>139</v>
       </c>
@@ -5851,7 +5958,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="32.25">
+    <row r="14" spans="1:13" ht="25.5" customHeight="1">
       <c r="A14" s="8" t="s">
         <v>158</v>
       </c>
@@ -5884,7 +5991,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="32.25">
+    <row r="15" spans="1:13" ht="25.5" customHeight="1">
       <c r="A15" s="8" t="s">
         <v>127</v>
       </c>
@@ -5916,7 +6023,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="32.25">
+    <row r="16" spans="1:13" ht="25.5" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>140</v>
       </c>
@@ -5947,7 +6054,7 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="32.25">
+    <row r="17" spans="1:13" ht="25.5" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>141</v>
       </c>
@@ -5974,7 +6081,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="32.25">
+    <row r="18" spans="1:13" ht="25.5" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>142</v>
       </c>
@@ -6007,7 +6114,7 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="32.25">
+    <row r="19" spans="1:13" ht="25.5" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>143</v>
       </c>
@@ -6039,7 +6146,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="32.25">
+    <row r="20" spans="1:13" ht="25.5" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>144</v>
       </c>
@@ -6070,7 +6177,7 @@
       </c>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13" ht="32.25">
+    <row r="21" spans="1:13" ht="25.5" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>132</v>
       </c>
@@ -6100,7 +6207,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="32.25">
+    <row r="22" spans="1:13" ht="25.5" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>145</v>
       </c>
@@ -6131,7 +6238,7 @@
       </c>
       <c r="M22" s="3"/>
     </row>
-    <row r="23" spans="1:13" ht="32.25">
+    <row r="23" spans="1:13" ht="25.5" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>146</v>
       </c>
@@ -6142,7 +6249,7 @@
       <c r="D23" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="28" t="s">
         <v>270</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -6162,138 +6269,138 @@
       </c>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" ht="25.5" customHeight="1">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" ht="25.5" customHeight="1">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" ht="25.5" customHeight="1">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" ht="25.5" customHeight="1">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="25.5" customHeight="1">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" ht="25.5" customHeight="1">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" ht="25.5" customHeight="1">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" ht="25.5" customHeight="1">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" ht="25.5" customHeight="1">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" ht="25.5" customHeight="1">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:5" ht="25.5" customHeight="1">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" ht="25.5" customHeight="1">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" ht="25.5" customHeight="1">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="42" spans="3:5">
+    <row r="42" spans="3:5" ht="25.5" customHeight="1">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="44" spans="3:5">
+    <row r="44" spans="3:5" ht="25.5" customHeight="1">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:5" ht="25.5" customHeight="1">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" ht="25.5" customHeight="1">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="50" spans="3:4">
+    <row r="50" spans="3:4" ht="25.5" customHeight="1">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="52" spans="3:4">
+    <row r="52" spans="3:4" ht="25.5" customHeight="1">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="54" spans="3:4">
+    <row r="54" spans="3:4" ht="25.5" customHeight="1">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="56" spans="3:4">
+    <row r="56" spans="3:4" ht="25.5" customHeight="1">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="58" spans="3:4">
+    <row r="58" spans="3:4" ht="25.5" customHeight="1">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="60" spans="3:4">
+    <row r="60" spans="3:4" ht="25.5" customHeight="1">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="62" spans="3:4">
+    <row r="62" spans="3:4" ht="25.5" customHeight="1">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="64" spans="3:4">
+    <row r="64" spans="3:4" ht="25.5" customHeight="1">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" ht="25.5" customHeight="1">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" ht="25.5" customHeight="1">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" ht="25.5" customHeight="1">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="72" spans="3:4">
+    <row r="72" spans="3:4" ht="25.5" customHeight="1">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="74" spans="3:4">
+    <row r="74" spans="3:4" ht="25.5" customHeight="1">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:4" ht="25.5" customHeight="1">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
@@ -6312,8 +6419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6322,477 +6429,475 @@
     <col min="2" max="10" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="24" customFormat="1">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:10" s="23" customFormat="1">
+      <c r="B2" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="36.75">
+      <c r="B3" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="24">
+        <v>9</v>
+      </c>
+      <c r="C4" s="24">
+        <v>8</v>
+      </c>
+      <c r="D4" s="24">
+        <v>7</v>
+      </c>
+      <c r="E4" s="24">
+        <v>6</v>
+      </c>
+      <c r="F4" s="24">
+        <v>5</v>
+      </c>
+      <c r="G4" s="24">
+        <v>4</v>
+      </c>
+      <c r="H4" s="24">
+        <v>3</v>
+      </c>
+      <c r="I4" s="24">
+        <v>2</v>
+      </c>
+      <c r="J4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="23" customFormat="1">
+      <c r="B6" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36.75">
+      <c r="B7" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="24">
+        <v>90</v>
+      </c>
+      <c r="C8" s="24">
+        <v>80</v>
+      </c>
+      <c r="D8" s="24">
+        <v>70</v>
+      </c>
+      <c r="E8" s="24">
+        <v>60</v>
+      </c>
+      <c r="F8" s="24">
+        <v>50</v>
+      </c>
+      <c r="G8" s="24">
+        <v>40</v>
+      </c>
+      <c r="H8" s="24">
+        <v>30</v>
+      </c>
+      <c r="I8" s="24">
+        <v>20</v>
+      </c>
+      <c r="J8" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="23" customFormat="1">
+      <c r="G10" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="36.75">
+      <c r="G11" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="G12" s="24">
+        <v>400</v>
+      </c>
+      <c r="H12" s="24">
+        <v>300</v>
+      </c>
+      <c r="I12" s="24">
+        <v>200</v>
+      </c>
+      <c r="J12" s="24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="30" customFormat="1">
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" s="23" customFormat="1">
+      <c r="B14" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D14" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="36.75">
+      <c r="B15" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="36.75">
-      <c r="B3" s="35" t="s">
+      <c r="D15" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="E15" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="F15" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="G15" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="H15" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="I15" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="J15" s="33" t="s">
         <v>299</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="25">
-        <v>9</v>
-      </c>
-      <c r="C4" s="25">
-        <v>8</v>
-      </c>
-      <c r="D4" s="25">
-        <v>7</v>
-      </c>
-      <c r="E4" s="25">
-        <v>6</v>
-      </c>
-      <c r="F4" s="25">
-        <v>5</v>
-      </c>
-      <c r="G4" s="25">
-        <v>4</v>
-      </c>
-      <c r="H4" s="25">
-        <v>3</v>
-      </c>
-      <c r="I4" s="25">
-        <v>2</v>
-      </c>
-      <c r="J4" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="24" customFormat="1">
-      <c r="B6" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="36.75">
-      <c r="B7" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="25">
-        <v>90</v>
-      </c>
-      <c r="C8" s="25">
-        <v>80</v>
-      </c>
-      <c r="D8" s="25">
-        <v>70</v>
-      </c>
-      <c r="E8" s="25">
-        <v>60</v>
-      </c>
-      <c r="F8" s="25">
-        <v>50</v>
-      </c>
-      <c r="G8" s="25">
-        <v>40</v>
-      </c>
-      <c r="H8" s="25">
-        <v>30</v>
-      </c>
-      <c r="I8" s="25">
-        <v>20</v>
-      </c>
-      <c r="J8" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="24" customFormat="1">
-      <c r="G10" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="36.75">
-      <c r="G11" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>313</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="G12" s="25">
-        <v>400</v>
-      </c>
-      <c r="H12" s="25">
-        <v>300</v>
-      </c>
-      <c r="I12" s="25">
-        <v>200</v>
-      </c>
-      <c r="J12" s="25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="31" customFormat="1">
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:10" s="24" customFormat="1">
-      <c r="B14" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="36.75">
-      <c r="B15" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="36.75">
       <c r="A16" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:13" ht="36.75">
-      <c r="A17" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="36" t="s">
+      <c r="A17" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="H17" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="J17" s="28"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="11.25" customHeight="1"/>
-    <row r="19" spans="1:13" s="24" customFormat="1">
-      <c r="B19" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="C19" s="25" t="s">
+    <row r="19" spans="1:13" s="23" customFormat="1">
+      <c r="B19" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="H19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="36.75">
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="E20" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="F20" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="G20" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="H20" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="I20" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="J20" s="33" t="s">
         <v>308</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>310</v>
       </c>
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" ht="36.75">
       <c r="A21" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B21" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="G21" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="39" t="s">
+      <c r="H21" s="33"/>
+      <c r="I21" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="1:13" ht="36.75">
+      <c r="A22" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="39" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="22" spans="1:13" ht="36.75">
-      <c r="A22" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="37" t="s">
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="1:13" ht="10.5" customHeight="1"/>
+    <row r="24" spans="1:13" s="23" customFormat="1">
+      <c r="G24" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="36.75">
+      <c r="G25" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="37" t="s">
+      <c r="H25" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="J22" s="35"/>
-    </row>
-    <row r="23" spans="1:13" ht="10.5" customHeight="1"/>
-    <row r="24" spans="1:13" s="24" customFormat="1">
-      <c r="G24" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="36.75">
-      <c r="G25" s="35" t="s">
+      <c r="I25" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="J25" s="33" t="s">
         <v>326</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>327</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="36.75">
       <c r="F26" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
+        <v>289</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:13" ht="36.75">
-      <c r="F27" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35" t="s">
+      <c r="F27" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="J27" s="35"/>
-    </row>
-    <row r="30" spans="1:13" ht="33">
-      <c r="A30" s="30" t="s">
-        <v>281</v>
-      </c>
+      <c r="G27" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33" t="s">
+        <v>328</v>
+      </c>
+      <c r="J27" s="33"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6806,7 +6911,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6820,7 +6925,7 @@
     <col min="7" max="7" width="4.25" style="13" customWidth="1"/>
     <col min="8" max="8" width="3.875" style="13" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="13" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="18" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="12" customWidth="1"/>
     <col min="12" max="12" width="31.875" style="13" customWidth="1"/>
     <col min="13" max="16384" width="9" style="13"/>
@@ -6836,13 +6941,13 @@
       <c r="C1" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>239</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>235</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -6857,7 +6962,7 @@
       <c r="J1" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>248</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -6877,24 +6982,24 @@
       <c r="D2" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="32" t="s">
         <v>177</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="41">
         <v>30</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6911,24 +7016,24 @@
       <c r="D3" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="32" t="s">
         <v>181</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="41">
         <v>29</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="16" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6945,24 +7050,24 @@
       <c r="D4" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="32" t="s">
         <v>185</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="41">
         <v>30</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="16" t="s">
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="17" t="s">
         <v>241</v>
       </c>
     </row>
@@ -6979,24 +7084,24 @@
       <c r="D5" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="32" t="s">
         <v>189</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="41">
         <v>29</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="16" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" ht="19.5">
       <c r="A6" s="14">
@@ -7011,24 +7116,24 @@
       <c r="D6" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="32" t="s">
         <v>193</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="41">
         <v>30</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="16" t="s">
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="19.5">
       <c r="A7" s="14">
@@ -7043,24 +7148,24 @@
       <c r="D7" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="32" t="s">
         <v>197</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="41">
         <v>29</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="16" t="s">
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" ht="19.5">
       <c r="A8" s="14">
@@ -7075,24 +7180,24 @@
       <c r="D8" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="32" t="s">
         <v>201</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="41">
         <v>30</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="16" t="s">
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="16" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7109,7 +7214,7 @@
       <c r="D9" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="32" t="s">
         <v>205</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -7124,13 +7229,13 @@
       <c r="I9" s="11">
         <v>30</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" ht="19.5">
       <c r="A10" s="14">
@@ -7145,7 +7250,7 @@
       <c r="D10" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="32" t="s">
         <v>209</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -7160,13 +7265,13 @@
       <c r="I10" s="11">
         <v>30</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="17" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7183,24 +7288,24 @@
       <c r="D11" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="32" t="s">
         <v>213</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="41">
         <v>29</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="16" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12" ht="19.5">
       <c r="A12" s="14">
@@ -7215,24 +7320,24 @@
       <c r="D12" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="32" t="s">
         <v>217</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="41">
         <v>30</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="16" t="s">
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" ht="19.5">
       <c r="A13" s="14">
@@ -7247,24 +7352,24 @@
       <c r="D13" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="32" t="s">
         <v>221</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="41">
         <v>30</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="16" t="s">
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="L13" s="17"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" ht="19.5">
       <c r="A14" s="11">
@@ -7279,24 +7384,24 @@
       <c r="D14" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="32" t="s">
         <v>221</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="41">
         <v>29</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="16" t="s">
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="17" t="s">
         <v>244</v>
       </c>
     </row>
@@ -7346,9 +7451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>

--- a/Hebrew.xlsx
+++ b/Hebrew.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="字母" sheetId="1" r:id="rId1"/>
     <sheet name="字母1" sheetId="4" r:id="rId2"/>
-    <sheet name="１２月份" sheetId="3" r:id="rId3"/>
-    <sheet name="１２星座" sheetId="2" r:id="rId4"/>
+    <sheet name="母音" sheetId="6" r:id="rId3"/>
+    <sheet name="１２月份" sheetId="3" r:id="rId4"/>
+    <sheet name="１２星座" sheetId="2" r:id="rId5"/>
+    <sheet name="節日" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="408">
   <si>
     <t>Aleph</t>
   </si>
@@ -2204,12 +2206,577 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>修殿節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾越節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>פסח</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>פֶּסֵח</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06453</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hanukah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pecach</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五旬節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普珥節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purim</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passover</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puwr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>פּוּר</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>פור</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>06332</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住棚節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是除酵節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七七節</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shabuwa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>07620</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>שבוע</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>שָׁבוּעַ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05521</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cukkah</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>סֻכָּה</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>סכה</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基斯流月(西曆11-12月)二十五日開始,為期八天的節慶,紀念馬加比於主前165年潔淨並重新獻殿.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>01456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>חנוכה</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>長母音</t>
+  </si>
+  <si>
+    <t>בָּ</t>
+  </si>
+  <si>
+    <t>בֵּ</t>
+  </si>
+  <si>
+    <t>בֹּ</t>
+  </si>
+  <si>
+    <t>短母音</t>
+  </si>
+  <si>
+    <t>בַּ</t>
+  </si>
+  <si>
+    <t>בֶּ</t>
+  </si>
+  <si>
+    <t>בִּ</t>
+  </si>
+  <si>
+    <t>בֻּ</t>
+  </si>
+  <si>
+    <t>縮短母音</t>
+  </si>
+  <si>
+    <t>בֲּ</t>
+  </si>
+  <si>
+    <t>בֱ</t>
+  </si>
+  <si>
+    <t>בֳּ</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ts</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>re</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lem</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thach</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ghol</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>req</t>
+    </r>
+  </si>
+  <si>
+    <t>Qibbuts</t>
+  </si>
+  <si>
+    <r>
+      <t>Hateph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thach</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hateph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ghol</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hateph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Qamets</t>
+    </r>
+  </si>
+  <si>
+    <t>קָמֵץ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>צֵרֵי</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>חֹלֶם</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>פָּתַח</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>סְגוֺל</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>חִרֶק</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>קָמֵץ חָטוּף</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>קִבּוּץ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hateph P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thach</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hateph S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ghol</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qamets Hatuf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hateph Qamets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>חָטֵף קָמֵץ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>חָטֵף סְגוֺל</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>חָטֵף פָּתַח</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄛ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄝ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2407,8 +2974,85 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Ezra SIL"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Ezra SIL"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF666666"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF666666"/>
+      <name val="Ezra SIL"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF141823"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2427,8 +3071,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2451,12 +3101,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2564,9 +3334,104 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2574,6 +3439,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5544,7 +6414,7 @@
   </sheetPr>
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
@@ -6419,8 +7289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6907,6 +7777,280 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="38.25" customHeight="1"/>
+  <cols>
+    <col min="2" max="6" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="44" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>361</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>363</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="44" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A2" s="60"/>
+      <c r="B2" s="54" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A3" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A4" s="64"/>
+      <c r="B4" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="F4" s="65"/>
+    </row>
+    <row r="5" spans="1:16" s="49" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A5" s="66"/>
+      <c r="B5" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="67"/>
+    </row>
+    <row r="6" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A6" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="F6" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="H6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="P6" s="46"/>
+    </row>
+    <row r="7" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A7" s="70"/>
+      <c r="B7" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="49" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A8" s="72"/>
+      <c r="B8" s="50" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A9" s="62" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A10" s="64"/>
+      <c r="B10" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="65"/>
+    </row>
+    <row r="11" spans="1:16" s="49" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>401</v>
+      </c>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="76"/>
+    </row>
+    <row r="13" spans="1:16" ht="38.25" customHeight="1">
+      <c r="H13" s="46"/>
+    </row>
+    <row r="21" spans="8:9" ht="38.25" customHeight="1">
+      <c r="H21" s="46"/>
+      <c r="I21" s="45"/>
+    </row>
+    <row r="23" spans="8:9" ht="38.25" customHeight="1">
+      <c r="H23" s="46"/>
+      <c r="I23" s="45"/>
+    </row>
+    <row r="37" spans="8:9" ht="38.25" customHeight="1">
+      <c r="H37" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" ht="38.25" customHeight="1">
+      <c r="H39" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="I39" s="47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" ht="38.25" customHeight="1">
+      <c r="H41" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" ht="38.25" customHeight="1">
+      <c r="H43" s="46"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="45" spans="8:9" ht="38.25" customHeight="1">
+      <c r="H45" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="I45" s="47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" ht="38.25" customHeight="1">
+      <c r="H47" s="46"/>
+    </row>
+    <row r="51" spans="8:8" ht="38.25" customHeight="1">
+      <c r="H51" s="47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8" ht="38.25" customHeight="1">
+      <c r="H53" s="47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" ht="38.25" customHeight="1">
+      <c r="H55" s="1"/>
+    </row>
+    <row r="57" spans="8:8" ht="38.25" customHeight="1">
+      <c r="H57" s="47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8" ht="38.25" customHeight="1">
+      <c r="H59" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -6988,11 +8132,11 @@
       <c r="F2" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="77">
         <v>30</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="15" t="s">
         <v>179</v>
       </c>
@@ -7022,11 +8166,11 @@
       <c r="F3" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="77">
         <v>29</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
       <c r="J3" s="15" t="s">
         <v>183</v>
       </c>
@@ -7056,11 +8200,11 @@
       <c r="F4" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="77">
         <v>30</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="15" t="s">
         <v>187</v>
       </c>
@@ -7090,11 +8234,11 @@
       <c r="F5" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="77">
         <v>29</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="15" t="s">
         <v>191</v>
       </c>
@@ -7122,11 +8266,11 @@
       <c r="F6" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="77">
         <v>30</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
       <c r="J6" s="15" t="s">
         <v>195</v>
       </c>
@@ -7154,11 +8298,11 @@
       <c r="F7" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="77">
         <v>29</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
       <c r="J7" s="15" t="s">
         <v>199</v>
       </c>
@@ -7186,11 +8330,11 @@
       <c r="F8" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="77">
         <v>30</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
       <c r="J8" s="15" t="s">
         <v>203</v>
       </c>
@@ -7294,11 +8438,11 @@
       <c r="F11" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="77">
         <v>29</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
       <c r="J11" s="15" t="s">
         <v>215</v>
       </c>
@@ -7326,11 +8470,11 @@
       <c r="F12" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="77">
         <v>30</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="15" t="s">
         <v>219</v>
       </c>
@@ -7358,11 +8502,11 @@
       <c r="F13" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="77">
         <v>30</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
       <c r="J13" s="15" t="s">
         <v>223</v>
       </c>
@@ -7390,11 +8534,11 @@
       <c r="F14" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="77">
         <v>29</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
       <c r="J14" s="15" t="s">
         <v>223</v>
       </c>
@@ -7410,17 +8554,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -7447,7 +8591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
@@ -7520,4 +8664,128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="29.25"/>
+  <cols>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="G1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" s="78"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>